--- a/teaching/traditional_assets/database/data/jamaica/jamaica_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,43 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.116</v>
+        <v>0.1135</v>
+      </c>
+      <c r="E2">
+        <v>0.326</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0009652509652509653</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007747251005506185</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006795309034968717</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.466</v>
+        <v>3.152</v>
       </c>
       <c r="L2">
-        <v>0.1860833333333334</v>
+        <v>0.1014157014157014</v>
       </c>
       <c r="M2">
-        <v>4.06</v>
+        <v>8.785</v>
       </c>
       <c r="N2">
-        <v>0.02204125950054289</v>
+        <v>0.04107059373539037</v>
       </c>
       <c r="O2">
-        <v>0.9090909090909089</v>
+        <v>2.787119289340102</v>
       </c>
       <c r="P2">
-        <v>4.06</v>
+        <v>8.785</v>
       </c>
       <c r="Q2">
-        <v>0.02204125950054289</v>
+        <v>0.04107059373539037</v>
       </c>
       <c r="R2">
-        <v>0.9090909090909089</v>
+        <v>2.787119289340102</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>23.7</v>
+        <v>37.809</v>
       </c>
       <c r="V2">
-        <v>0.1286644951140065</v>
+        <v>0.1767601683029453</v>
       </c>
       <c r="W2">
-        <v>0.1208146291841484</v>
+        <v>0.08773234200743495</v>
       </c>
       <c r="X2">
-        <v>0.04935745142439849</v>
+        <v>0.03255661742746484</v>
       </c>
       <c r="Y2">
-        <v>0.07145717775974988</v>
+        <v>0.05517572457997011</v>
       </c>
       <c r="Z2">
-        <v>0.07779545070157998</v>
+        <v>0.07593081207856933</v>
       </c>
       <c r="AA2">
-        <v>0.0004900445963095791</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05674876832309732</v>
+        <v>0.0407710564552643</v>
       </c>
       <c r="AC2">
-        <v>-0.05625872372678774</v>
+        <v>-0.0407710564552643</v>
       </c>
       <c r="AD2">
-        <v>222.3</v>
+        <v>269.5</v>
       </c>
       <c r="AE2">
-        <v>0.2103298793392578</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>222.5103298793393</v>
+        <v>269.5</v>
       </c>
       <c r="AG2">
-        <v>198.8103298793393</v>
+        <v>231.691</v>
       </c>
       <c r="AH2">
-        <v>0.5470978077821443</v>
+        <v>0.5575093090608192</v>
       </c>
       <c r="AI2">
-        <v>0.5508904165580764</v>
+        <v>0.6474007879312002</v>
       </c>
       <c r="AJ2">
-        <v>0.5190730232836567</v>
+        <v>0.5199633744846731</v>
       </c>
       <c r="AK2">
-        <v>0.5228956560502505</v>
+        <v>0.6121763622576102</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>975</v>
-      </c>
-      <c r="AP2">
-        <v>871.9751310497336</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mayberry Investments Limited (JMSE:MIL)</t>
+          <t>ISP Finance Services Limited (JMSE:ISP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,9 +712,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.116</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -725,103 +719,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01822882589530867</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01822882589530867</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.414</v>
+        <v>0.236</v>
       </c>
       <c r="L3">
-        <v>-0.04058823529411765</v>
+        <v>0.1396449704142012</v>
       </c>
       <c r="M3">
-        <v>2.38</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02891859052247873</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-5.748792270531401</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>2.38</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02891859052247873</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-5.748792270531401</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>13.1</v>
+        <v>0.159</v>
       </c>
       <c r="V3">
-        <v>0.1591737545565006</v>
+        <v>0.01089041095890411</v>
       </c>
       <c r="W3">
-        <v>-0.003596872284969592</v>
+        <v>0.08773234200743495</v>
       </c>
       <c r="X3">
-        <v>0.04806048258720196</v>
+        <v>0.02749808511588653</v>
       </c>
       <c r="Y3">
-        <v>-0.05165735487217155</v>
+        <v>0.06023425689154842</v>
       </c>
       <c r="Z3">
-        <v>0.0537658979381328</v>
+        <v>0.3635190363519036</v>
       </c>
       <c r="AA3">
-        <v>0.0009800891926191582</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05584820179364162</v>
+        <v>0.03227760025255405</v>
       </c>
       <c r="AC3">
-        <v>-0.05486811260102246</v>
+        <v>-0.03227760025255405</v>
       </c>
       <c r="AD3">
-        <v>89.3</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>0.2103298793392578</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>89.51032987933925</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>76.41032987933926</v>
+        <v>1.841</v>
       </c>
       <c r="AH3">
-        <v>0.5209834003706384</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="AI3">
-        <v>0.3760775001854627</v>
+        <v>0.4158004158004158</v>
       </c>
       <c r="AJ3">
-        <v>0.4814452212242946</v>
+        <v>0.1119761571680555</v>
       </c>
       <c r="AK3">
-        <v>0.3397368627769661</v>
+        <v>0.3958288540098904</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>391.6666666666666</v>
-      </c>
-      <c r="AP3">
-        <v>335.1330257865757</v>
       </c>
     </row>
     <row r="4">
@@ -832,111 +817,468 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Access Financial Services Limited (JMSE:AFS)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.796</v>
+      </c>
+      <c r="L4">
+        <v>0.07302752293577981</v>
+      </c>
+      <c r="M4">
+        <v>0.489</v>
+      </c>
+      <c r="N4">
+        <v>0.01067685589519651</v>
+      </c>
+      <c r="O4">
+        <v>0.614321608040201</v>
+      </c>
+      <c r="P4">
+        <v>0.489</v>
+      </c>
+      <c r="Q4">
+        <v>0.01067685589519651</v>
+      </c>
+      <c r="R4">
+        <v>0.614321608040201</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>4.87</v>
+      </c>
+      <c r="V4">
+        <v>0.1063318777292576</v>
+      </c>
+      <c r="W4">
+        <v>0.04326086956521739</v>
+      </c>
+      <c r="X4">
+        <v>0.0313154924306026</v>
+      </c>
+      <c r="Y4">
+        <v>0.0119453771346148</v>
+      </c>
+      <c r="Z4">
+        <v>0.2905117270788912</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.0398341313085533</v>
+      </c>
+      <c r="AC4">
+        <v>-0.0398341313085533</v>
+      </c>
+      <c r="AD4">
+        <v>20.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>20.4</v>
+      </c>
+      <c r="AG4">
+        <v>15.53</v>
+      </c>
+      <c r="AH4">
+        <v>0.3081570996978852</v>
+      </c>
+      <c r="AI4">
+        <v>0.5573770491803279</v>
+      </c>
+      <c r="AJ4">
+        <v>0.2532202837110712</v>
+      </c>
+      <c r="AK4">
+        <v>0.4894421682949889</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eppley Limited (JMSE:EPLY)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.365</v>
+      </c>
+      <c r="E5">
+        <v>0.326</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.56</v>
+      </c>
+      <c r="L5">
+        <v>0.5977011494252874</v>
+      </c>
+      <c r="M5">
+        <v>0.946</v>
+      </c>
+      <c r="N5">
+        <v>0.02469973890339426</v>
+      </c>
+      <c r="O5">
+        <v>0.6064102564102564</v>
+      </c>
+      <c r="P5">
+        <v>0.946</v>
+      </c>
+      <c r="Q5">
+        <v>0.02469973890339426</v>
+      </c>
+      <c r="R5">
+        <v>0.6064102564102564</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>3.08</v>
+      </c>
+      <c r="V5">
+        <v>0.08041775456919061</v>
+      </c>
+      <c r="W5">
+        <v>0.2662116040955632</v>
+      </c>
+      <c r="X5">
+        <v>0.03255661742746484</v>
+      </c>
+      <c r="Y5">
+        <v>0.2336549866680983</v>
+      </c>
+      <c r="Z5">
+        <v>0.1076288659793814</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0407710564552643</v>
+      </c>
+      <c r="AC5">
+        <v>-0.0407710564552643</v>
+      </c>
+      <c r="AD5">
+        <v>20.9</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>20.9</v>
+      </c>
+      <c r="AG5">
+        <v>17.82</v>
+      </c>
+      <c r="AH5">
+        <v>0.3530405405405405</v>
+      </c>
+      <c r="AI5">
+        <v>0.7636097917427841</v>
+      </c>
+      <c r="AJ5">
+        <v>0.3175338560228083</v>
+      </c>
+      <c r="AK5">
+        <v>0.7336352408398519</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mayberry Investments Limited (JMSE:MIL)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.138</v>
+      </c>
+      <c r="G6">
+        <v>0.00684931506849315</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-2.74</v>
+      </c>
+      <c r="L6">
+        <v>-0.6255707762557078</v>
+      </c>
+      <c r="M6">
+        <v>1.23</v>
+      </c>
+      <c r="N6">
+        <v>0.0240234375</v>
+      </c>
+      <c r="O6">
+        <v>-0.448905109489051</v>
+      </c>
+      <c r="P6">
+        <v>1.23</v>
+      </c>
+      <c r="Q6">
+        <v>0.0240234375</v>
+      </c>
+      <c r="R6">
+        <v>-0.448905109489051</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>10.8</v>
+      </c>
+      <c r="V6">
+        <v>0.2109375</v>
+      </c>
+      <c r="W6">
+        <v>-0.02450805008944544</v>
+      </c>
+      <c r="X6">
+        <v>0.04535917274379024</v>
+      </c>
+      <c r="Y6">
+        <v>-0.06986722283323568</v>
+      </c>
+      <c r="Z6">
+        <v>0.02329774841623183</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.05176817853274354</v>
+      </c>
+      <c r="AC6">
+        <v>-0.05176817853274354</v>
+      </c>
+      <c r="AD6">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>70.10000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.6124148372445116</v>
+      </c>
+      <c r="AI6">
+        <v>0.4638761467889909</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5779060181368508</v>
+      </c>
+      <c r="AK6">
+        <v>0.4284841075794621</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Victoria Mutual Investments Limited (JMSE:VMIL)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>4.88</v>
-      </c>
-      <c r="L4">
-        <v>0.3536231884057971</v>
-      </c>
-      <c r="M4">
-        <v>1.68</v>
-      </c>
-      <c r="N4">
-        <v>0.01648675171736997</v>
-      </c>
-      <c r="O4">
-        <v>0.3442622950819672</v>
-      </c>
-      <c r="P4">
-        <v>1.68</v>
-      </c>
-      <c r="Q4">
-        <v>0.01648675171736997</v>
-      </c>
-      <c r="R4">
-        <v>0.3442622950819672</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>10.6</v>
-      </c>
-      <c r="V4">
-        <v>0.1040235525024534</v>
-      </c>
-      <c r="W4">
-        <v>0.2452261306532663</v>
-      </c>
-      <c r="X4">
-        <v>0.05065442026159503</v>
-      </c>
-      <c r="Y4">
-        <v>0.1945717103916713</v>
-      </c>
-      <c r="Z4">
-        <v>0.1161713948985605</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.057649334852553</v>
-      </c>
-      <c r="AC4">
-        <v>-0.057649334852553</v>
-      </c>
-      <c r="AD4">
-        <v>133</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>133</v>
-      </c>
-      <c r="AG4">
-        <v>122.4</v>
-      </c>
-      <c r="AH4">
-        <v>0.5661983822903363</v>
-      </c>
-      <c r="AI4">
-        <v>0.8016877637130801</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5456977262594739</v>
-      </c>
-      <c r="AK4">
-        <v>0.7881519639407598</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3.3</v>
+      </c>
+      <c r="L7">
+        <v>0.2869565217391304</v>
+      </c>
+      <c r="M7">
+        <v>6.12</v>
+      </c>
+      <c r="N7">
+        <v>0.095625</v>
+      </c>
+      <c r="O7">
+        <v>1.854545454545455</v>
+      </c>
+      <c r="P7">
+        <v>6.12</v>
+      </c>
+      <c r="Q7">
+        <v>0.095625</v>
+      </c>
+      <c r="R7">
+        <v>1.854545454545455</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>18.9</v>
+      </c>
+      <c r="V7">
+        <v>0.2953125</v>
+      </c>
+      <c r="W7">
+        <v>0.1015384615384615</v>
+      </c>
+      <c r="X7">
+        <v>0.05390217496568217</v>
+      </c>
+      <c r="Y7">
+        <v>0.04763628657277937</v>
+      </c>
+      <c r="Z7">
+        <v>0.07424144609425436</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.05741293382614256</v>
+      </c>
+      <c r="AC7">
+        <v>-0.05741293382614256</v>
+      </c>
+      <c r="AD7">
+        <v>145.3</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>145.3</v>
+      </c>
+      <c r="AG7">
+        <v>126.4</v>
+      </c>
+      <c r="AH7">
+        <v>0.6942188246536073</v>
+      </c>
+      <c r="AI7">
+        <v>0.8393991912189486</v>
+      </c>
+      <c r="AJ7">
+        <v>0.6638655462184874</v>
+      </c>
+      <c r="AK7">
+        <v>0.8197146562905318</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>0</v>
       </c>
     </row>
